--- a/doc/0830测试用例.xlsx
+++ b/doc/0830测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproject\auditcenter_apitest\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4158CA75-6832-4DEC-9FAC-87B0CB51EA92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDBD06D-48AA-4CAE-A7E2-D96A077697F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="305">
   <si>
     <r>
       <rPr>
@@ -22799,10 +22799,6 @@
     <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
-    <t>药品信息</t>
-    <phoneticPr fontId="40" type="noConversion"/>
-  </si>
-  <si>
     <t>门诊有效数据合并-按患者</t>
     <phoneticPr fontId="40" type="noConversion"/>
   </si>
@@ -23384,6 +23380,14 @@
   </si>
   <si>
     <t>同一xml传入处方1和处方2，作废处方1，再同患者传入处方3，则处方3任务待审详情</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>药品信息-xml中只有1个处方</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>药品信息-xml中有2（只是举例）个处方</t>
     <phoneticPr fontId="40" type="noConversion"/>
   </si>
 </sst>
@@ -24210,6 +24214,45 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -24236,37 +24279,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -24287,6 +24299,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -24325,18 +24349,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -24351,18 +24363,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -24391,6 +24391,18 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -24399,14 +24411,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -25790,35 +25794,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="107"/>
+      <c r="E1" s="120"/>
       <c r="F1" s="89" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
       <c r="E2" s="90"/>
     </row>
     <row r="3" spans="1:256" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
     </row>
     <row r="4" spans="1:256" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="91"/>
@@ -25845,14 +25849,14 @@
       </c>
     </row>
     <row r="6" spans="1:256" s="84" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
     </row>
     <row r="7" spans="1:256" s="84" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="97" t="s">
@@ -25862,9 +25866,9 @@
       <c r="C7" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
     </row>
     <row r="8" spans="1:256" s="84" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="97" t="s">
@@ -25876,11 +25880,11 @@
       <c r="C8" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="113" t="s">
+      <c r="D8" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
     </row>
     <row r="9" spans="1:256" s="84" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="97" t="s">
@@ -25892,9 +25896,9 @@
       <c r="C9" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="116"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="106"/>
     </row>
     <row r="10" spans="1:256" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="94"/>
@@ -26155,14 +26159,14 @@
       <c r="IV10" s="94"/>
     </row>
     <row r="11" spans="1:256" s="85" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
     </row>
     <row r="12" spans="1:256" s="86" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="97" t="s">
@@ -26171,14 +26175,14 @@
       <c r="B12" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="117" t="s">
+      <c r="C12" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="118"/>
-      <c r="E12" s="117" t="s">
+      <c r="D12" s="115"/>
+      <c r="E12" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="118"/>
+      <c r="F12" s="115"/>
       <c r="G12" s="99"/>
       <c r="H12" s="99"/>
       <c r="I12" s="99"/>
@@ -26205,65 +26209,82 @@
       <c r="B13" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="114" t="s">
+      <c r="C13" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="116"/>
-      <c r="E13" s="119" t="s">
+      <c r="D13" s="106"/>
+      <c r="E13" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="120"/>
+      <c r="F13" s="108"/>
     </row>
     <row r="14" spans="1:256" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="102"/>
       <c r="B14" s="102"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="120"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="108"/>
     </row>
     <row r="15" spans="1:256" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="102"/>
       <c r="B15" s="102"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="120"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="108"/>
     </row>
     <row r="16" spans="1:256" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="102"/>
       <c r="B16" s="102"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="120"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="108"/>
     </row>
     <row r="17" spans="1:6" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="102"/>
       <c r="B17" s="102"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="120"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="108"/>
     </row>
     <row r="18" spans="1:6" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="102"/>
       <c r="B18" s="102"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="120"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="108"/>
     </row>
     <row r="19" spans="1:6" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="102"/>
       <c r="B19" s="102"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="120"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="C16:D16"/>
@@ -26272,23 +26293,6 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <dataValidations count="2">
@@ -26319,14 +26323,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="124"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="126"/>
     </row>
     <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
@@ -26554,7 +26558,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -26618,7 +26622,7 @@
       <c r="D4" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="E4" s="125"/>
+      <c r="E4" s="127"/>
     </row>
     <row r="5" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A5" s="52"/>
@@ -26629,7 +26633,7 @@
       <c r="D5" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="126"/>
+      <c r="E5" s="128"/>
     </row>
     <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="52"/>
@@ -26640,7 +26644,7 @@
       <c r="D6" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="E6" s="125"/>
+      <c r="E6" s="127"/>
     </row>
     <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="52"/>
@@ -26651,7 +26655,7 @@
       <c r="D7" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="126"/>
+      <c r="E7" s="128"/>
     </row>
     <row r="8" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
@@ -26708,7 +26712,7 @@
       <c r="D12" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="127"/>
+      <c r="E12" s="129"/>
       <c r="F12" s="64"/>
     </row>
     <row r="13" spans="1:6" ht="238.5" x14ac:dyDescent="0.15">
@@ -26722,7 +26726,7 @@
       <c r="D13" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="E13" s="128"/>
+      <c r="E13" s="130"/>
       <c r="F13" s="64"/>
     </row>
     <row r="14" spans="1:6" ht="343.5" x14ac:dyDescent="0.15">
@@ -26806,7 +26810,7 @@
       <c r="C19" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="164"/>
+      <c r="D19" s="103"/>
       <c r="E19" s="78"/>
       <c r="F19" s="1" t="s">
         <v>72</v>
@@ -26819,7 +26823,7 @@
         <v>73</v>
       </c>
       <c r="D20" s="51"/>
-      <c r="E20" s="125"/>
+      <c r="E20" s="127"/>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="52"/>
@@ -26828,7 +26832,7 @@
         <v>74</v>
       </c>
       <c r="D21" s="51"/>
-      <c r="E21" s="126"/>
+      <c r="E21" s="128"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="52"/>
@@ -26852,19 +26856,19 @@
       <c r="A24" s="52"/>
       <c r="B24" s="52"/>
       <c r="C24" s="52"/>
-      <c r="D24" s="165"/>
+      <c r="D24" s="104"/>
       <c r="E24" s="78"/>
     </row>
     <row r="25" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
-      <c r="B25" s="164" t="s">
+      <c r="B25" s="103" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25" s="103" t="s">
+        <v>303</v>
+      </c>
+      <c r="D25" s="104" t="s">
         <v>300</v>
-      </c>
-      <c r="C25" s="164" t="s">
-        <v>299</v>
-      </c>
-      <c r="D25" s="165" t="s">
-        <v>301</v>
       </c>
       <c r="E25" s="78"/>
     </row>
@@ -26872,8 +26876,8 @@
       <c r="A26" s="52"/>
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
-      <c r="D26" s="164" t="s">
-        <v>302</v>
+      <c r="D26" s="103" t="s">
+        <v>301</v>
       </c>
       <c r="E26" s="78"/>
     </row>
@@ -26881,15 +26885,17 @@
       <c r="A27" s="52"/>
       <c r="B27" s="52"/>
       <c r="C27" s="52"/>
-      <c r="D27" s="164" t="s">
-        <v>303</v>
+      <c r="D27" s="103" t="s">
+        <v>302</v>
       </c>
       <c r="E27" s="78"/>
     </row>
     <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="52"/>
       <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
+      <c r="C28" s="52" t="s">
+        <v>304</v>
+      </c>
       <c r="D28" s="51"/>
       <c r="E28" s="78"/>
     </row>
@@ -26945,12 +26951,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="135"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="140"/>
       <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -26972,7 +26978,7 @@
     </row>
     <row r="3" spans="1:6" ht="78.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="54"/>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="142" t="s">
         <v>79</v>
       </c>
       <c r="C3" s="52" t="s">
@@ -26988,43 +26994,43 @@
     </row>
     <row r="4" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="54"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="137" t="s">
+      <c r="B4" s="143"/>
+      <c r="C4" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="140" t="s">
+      <c r="D4" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="129"/>
+      <c r="E4" s="134"/>
     </row>
     <row r="5" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="54"/>
-      <c r="B5" s="138"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="130"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="135"/>
     </row>
     <row r="6" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="54"/>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138" t="s">
+      <c r="B6" s="143"/>
+      <c r="C6" s="143" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="142" t="s">
+      <c r="D6" s="131" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="129"/>
+      <c r="E6" s="134"/>
     </row>
     <row r="7" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="54"/>
-      <c r="B7" s="138"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="130"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="135"/>
     </row>
     <row r="8" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="54"/>
-      <c r="B8" s="138"/>
+      <c r="B8" s="143"/>
       <c r="C8" s="59" t="s">
         <v>86</v>
       </c>
@@ -27035,7 +27041,7 @@
     </row>
     <row r="9" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="54"/>
-      <c r="B9" s="138"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="59" t="s">
         <v>88</v>
       </c>
@@ -27046,7 +27052,7 @@
     </row>
     <row r="10" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="54"/>
-      <c r="B10" s="139"/>
+      <c r="B10" s="144"/>
       <c r="C10" s="59" t="s">
         <v>90</v>
       </c>
@@ -27057,7 +27063,7 @@
     </row>
     <row r="11" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="51"/>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="142" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="55" t="s">
@@ -27069,30 +27075,30 @@
       <c r="E11" s="63"/>
     </row>
     <row r="12" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="138"/>
-      <c r="C12" s="137" t="s">
+      <c r="B12" s="143"/>
+      <c r="C12" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="140" t="s">
+      <c r="D12" s="133" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="131"/>
+      <c r="E12" s="136"/>
       <c r="F12" s="64"/>
     </row>
     <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="136"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="132"/>
+      <c r="A13" s="141"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="137"/>
       <c r="F13" s="64"/>
     </row>
     <row r="14" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="136"/>
-      <c r="B14" s="138"/>
+      <c r="A14" s="141"/>
+      <c r="B14" s="143"/>
       <c r="C14" s="59" t="s">
         <v>39</v>
       </c>
@@ -27103,8 +27109,8 @@
       <c r="F14" s="65"/>
     </row>
     <row r="15" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="136"/>
-      <c r="B15" s="138"/>
+      <c r="A15" s="141"/>
+      <c r="B15" s="143"/>
       <c r="C15" s="66" t="s">
         <v>41</v>
       </c>
@@ -27114,8 +27120,8 @@
       <c r="E15" s="63"/>
     </row>
     <row r="16" spans="1:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="136"/>
-      <c r="B16" s="139"/>
+      <c r="A16" s="141"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="66" t="s">
         <v>42</v>
       </c>
@@ -27125,8 +27131,8 @@
       <c r="E16" s="63"/>
     </row>
     <row r="17" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="136"/>
-      <c r="B17" s="137" t="s">
+      <c r="A17" s="141"/>
+      <c r="B17" s="142" t="s">
         <v>98</v>
       </c>
       <c r="C17" s="66" t="s">
@@ -27139,8 +27145,8 @@
       <c r="F17" s="58"/>
     </row>
     <row r="18" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="136"/>
-      <c r="B18" s="138"/>
+      <c r="A18" s="141"/>
+      <c r="B18" s="143"/>
       <c r="C18" s="54" t="s">
         <v>101</v>
       </c>
@@ -27150,8 +27156,8 @@
       <c r="E18" s="57"/>
     </row>
     <row r="19" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="136"/>
-      <c r="B19" s="138"/>
+      <c r="A19" s="141"/>
+      <c r="B19" s="143"/>
       <c r="C19" s="68" t="s">
         <v>103</v>
       </c>
@@ -27161,33 +27167,33 @@
       <c r="E19" s="57"/>
     </row>
     <row r="20" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="136"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="138" t="s">
+      <c r="A20" s="141"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="142" t="s">
+      <c r="D20" s="131" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="129"/>
+      <c r="E20" s="134"/>
     </row>
     <row r="21" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="136"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="130"/>
+      <c r="A21" s="141"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="135"/>
     </row>
     <row r="22" spans="1:6" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="136"/>
-      <c r="B22" s="138"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="141"/>
+      <c r="A22" s="141"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="132"/>
       <c r="E22" s="61"/>
     </row>
     <row r="23" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="136"/>
-      <c r="B23" s="138"/>
+      <c r="A23" s="141"/>
+      <c r="B23" s="143"/>
       <c r="C23" s="59" t="s">
         <v>107</v>
       </c>
@@ -27197,8 +27203,8 @@
       <c r="E23" s="57"/>
     </row>
     <row r="24" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="136"/>
-      <c r="B24" s="136" t="s">
+      <c r="A24" s="141"/>
+      <c r="B24" s="141" t="s">
         <v>109</v>
       </c>
       <c r="C24" s="52" t="s">
@@ -27210,8 +27216,8 @@
       <c r="E24" s="57"/>
     </row>
     <row r="25" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="136"/>
-      <c r="B25" s="136"/>
+      <c r="A25" s="141"/>
+      <c r="B25" s="141"/>
       <c r="C25" s="52" t="s">
         <v>112</v>
       </c>
@@ -27221,8 +27227,8 @@
       <c r="E25" s="57"/>
     </row>
     <row r="26" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="136"/>
-      <c r="B26" s="136"/>
+      <c r="A26" s="141"/>
+      <c r="B26" s="141"/>
       <c r="C26" s="52" t="s">
         <v>114</v>
       </c>
@@ -27232,8 +27238,8 @@
       <c r="E26" s="57"/>
     </row>
     <row r="27" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="136"/>
-      <c r="B27" s="136" t="s">
+      <c r="A27" s="141"/>
+      <c r="B27" s="141" t="s">
         <v>116</v>
       </c>
       <c r="C27" s="52" t="s">
@@ -27245,8 +27251,8 @@
       <c r="E27" s="57"/>
     </row>
     <row r="28" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="136"/>
-      <c r="B28" s="136"/>
+      <c r="A28" s="141"/>
+      <c r="B28" s="141"/>
       <c r="C28" s="52" t="s">
         <v>118</v>
       </c>
@@ -27256,8 +27262,8 @@
       <c r="E28" s="57"/>
     </row>
     <row r="29" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="136"/>
-      <c r="B29" s="136"/>
+      <c r="A29" s="141"/>
+      <c r="B29" s="141"/>
       <c r="C29" s="52" t="s">
         <v>120</v>
       </c>
@@ -27300,13 +27306,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E20:E21"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A12:A29"/>
     <mergeCell ref="B3:B10"/>
@@ -27319,6 +27318,13 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <hyperlinks>
@@ -27359,73 +27365,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="148" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="146" t="s">
+      <c r="C1" s="148" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="146" t="s">
+      <c r="D1" s="148" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="146" t="s">
+      <c r="E1" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="146" t="s">
+      <c r="F1" s="148" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="146" t="s">
+      <c r="G1" s="148" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="146" t="s">
+      <c r="H1" s="148" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="146" t="s">
+      <c r="I1" s="148" t="s">
         <v>138</v>
       </c>
-      <c r="J1" s="146" t="s">
+      <c r="J1" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="146" t="s">
+      <c r="K1" s="148" t="s">
         <v>140</v>
       </c>
-      <c r="L1" s="146" t="s">
+      <c r="L1" s="148" t="s">
         <v>141</v>
       </c>
-      <c r="M1" s="143" t="s">
+      <c r="M1" s="145" t="s">
         <v>142</v>
       </c>
-      <c r="N1" s="144"/>
-      <c r="O1" s="144"/>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="144"/>
-      <c r="S1" s="144"/>
-      <c r="T1" s="144"/>
-      <c r="U1" s="144"/>
-      <c r="V1" s="144"/>
-      <c r="W1" s="144"/>
-      <c r="X1" s="144"/>
-      <c r="Y1" s="144"/>
-      <c r="Z1" s="144"/>
-      <c r="AA1" s="145"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="146"/>
+      <c r="P1" s="146"/>
+      <c r="Q1" s="146"/>
+      <c r="R1" s="146"/>
+      <c r="S1" s="146"/>
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="146"/>
+      <c r="AA1" s="147"/>
     </row>
     <row r="2" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
       <c r="M2" s="27" t="s">
         <v>143</v>
       </c>
@@ -43304,46 +43310,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="149"/>
+      <c r="B1" s="160"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="161" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="152" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="151"/>
-      <c r="B3" s="155"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="153"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="150" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="152" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="153"/>
-      <c r="B5" s="155"/>
+      <c r="A5" s="151"/>
+      <c r="B5" s="153"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="152" t="s">
+      <c r="A6" s="150" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="156" t="s">
+      <c r="B6" s="154" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="153"/>
-      <c r="B7" s="155"/>
+      <c r="A7" s="151"/>
+      <c r="B7" s="153"/>
     </row>
     <row r="8" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
@@ -43372,104 +43378,104 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="152" t="s">
+      <c r="A12" s="150" t="s">
         <v>176</v>
       </c>
-      <c r="B12" s="156" t="s">
+      <c r="B12" s="154" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="153"/>
-      <c r="B13" s="155"/>
+      <c r="A13" s="151"/>
+      <c r="B13" s="153"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="152" t="s">
+      <c r="A14" s="150" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="156" t="s">
+      <c r="B14" s="154" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="158"/>
-      <c r="B15" s="157"/>
+      <c r="A15" s="156"/>
+      <c r="B15" s="155"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="158"/>
-      <c r="B16" s="157"/>
+      <c r="A16" s="156"/>
+      <c r="B16" s="155"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="158"/>
-      <c r="B17" s="157"/>
+      <c r="A17" s="156"/>
+      <c r="B17" s="155"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="158"/>
-      <c r="B18" s="157"/>
+      <c r="A18" s="156"/>
+      <c r="B18" s="155"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="153"/>
-      <c r="B19" s="155"/>
+      <c r="A19" s="151"/>
+      <c r="B19" s="153"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="152" t="s">
+      <c r="A20" s="150" t="s">
         <v>180</v>
       </c>
-      <c r="B20" s="156" t="s">
+      <c r="B20" s="154" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="153"/>
-      <c r="B21" s="155"/>
+      <c r="A21" s="151"/>
+      <c r="B21" s="153"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="159" t="s">
+      <c r="A22" s="157" t="s">
         <v>182</v>
       </c>
-      <c r="B22" s="156" t="s">
+      <c r="B22" s="154" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="160"/>
-      <c r="B23" s="155"/>
+      <c r="A23" s="158"/>
+      <c r="B23" s="153"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="152" t="s">
+      <c r="A24" s="150" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="156" t="s">
+      <c r="B24" s="154" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="153"/>
-      <c r="B25" s="155"/>
+      <c r="A25" s="151"/>
+      <c r="B25" s="153"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="159" t="s">
+      <c r="A26" s="157" t="s">
         <v>186</v>
       </c>
-      <c r="B26" s="156" t="s">
+      <c r="B26" s="154" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="160"/>
-      <c r="B27" s="155"/>
+      <c r="A27" s="158"/>
+      <c r="B27" s="153"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="152" t="s">
+      <c r="A28" s="150" t="s">
         <v>188</v>
       </c>
-      <c r="B28" s="156" t="s">
+      <c r="B28" s="154" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="153"/>
-      <c r="B29" s="155"/>
+      <c r="A29" s="151"/>
+      <c r="B29" s="153"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
@@ -43497,6 +43503,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
@@ -43513,11 +43524,6 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -44140,7 +44146,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="163" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -44154,7 +44160,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="161"/>
+      <c r="A3" s="163"/>
       <c r="B3" s="3" t="s">
         <v>227</v>
       </c>
@@ -44166,7 +44172,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="161"/>
+      <c r="A4" s="163"/>
       <c r="B4" s="3" t="s">
         <v>199</v>
       </c>
@@ -44178,7 +44184,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="161"/>
+      <c r="A5" s="163"/>
       <c r="B5" s="3" t="s">
         <v>227</v>
       </c>
@@ -44190,7 +44196,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="163" t="s">
         <v>234</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -44204,7 +44210,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="161"/>
+      <c r="A7" s="163"/>
       <c r="B7" s="3" t="s">
         <v>227</v>
       </c>
@@ -44216,7 +44222,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="161"/>
+      <c r="A8" s="163"/>
       <c r="B8" s="3" t="s">
         <v>199</v>
       </c>
@@ -44228,7 +44234,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="161"/>
+      <c r="A9" s="163"/>
       <c r="B9" s="3" t="s">
         <v>227</v>
       </c>
@@ -44240,7 +44246,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="161" t="s">
+      <c r="A10" s="163" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -44254,7 +44260,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="161"/>
+      <c r="A11" s="163"/>
       <c r="B11" s="3" t="s">
         <v>199</v>
       </c>
@@ -44266,7 +44272,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="161"/>
+      <c r="A12" s="163"/>
       <c r="B12" s="3" t="s">
         <v>200</v>
       </c>
@@ -44278,7 +44284,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="161"/>
+      <c r="A13" s="163"/>
       <c r="B13" s="3" t="s">
         <v>200</v>
       </c>
@@ -44290,7 +44296,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="161"/>
+      <c r="A14" s="163"/>
       <c r="B14" s="3" t="s">
         <v>200</v>
       </c>
@@ -44302,7 +44308,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="161" t="s">
+      <c r="A15" s="163" t="s">
         <v>75</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -44316,7 +44322,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="161"/>
+      <c r="A16" s="163"/>
       <c r="B16" s="3" t="s">
         <v>239</v>
       </c>
@@ -44328,7 +44334,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="161"/>
+      <c r="A17" s="163"/>
       <c r="B17" s="3" t="s">
         <v>199</v>
       </c>
@@ -44340,7 +44346,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="161"/>
+      <c r="A18" s="163"/>
       <c r="B18" s="3" t="s">
         <v>199</v>
       </c>
@@ -44352,7 +44358,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="161"/>
+      <c r="A19" s="163"/>
       <c r="B19" s="3" t="s">
         <v>241</v>
       </c>
@@ -44364,7 +44370,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="161" t="s">
+      <c r="A20" s="163" t="s">
         <v>243</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -44378,7 +44384,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="161"/>
+      <c r="A21" s="163"/>
       <c r="B21" s="3" t="s">
         <v>209</v>
       </c>
@@ -44390,7 +44396,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="161"/>
+      <c r="A22" s="163"/>
       <c r="B22" s="3" t="s">
         <v>211</v>
       </c>
@@ -44402,7 +44408,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A23" s="161"/>
+      <c r="A23" s="163"/>
       <c r="B23" s="2" t="s">
         <v>245</v>
       </c>
@@ -44414,7 +44420,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="161"/>
+      <c r="A24" s="163"/>
       <c r="B24" s="3" t="s">
         <v>199</v>
       </c>
@@ -44426,7 +44432,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="161"/>
+      <c r="A25" s="163"/>
       <c r="B25" s="3" t="s">
         <v>199</v>
       </c>
@@ -44438,7 +44444,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="161"/>
+      <c r="A26" s="163"/>
       <c r="B26" s="3" t="s">
         <v>199</v>
       </c>
@@ -44450,7 +44456,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="161"/>
+      <c r="A27" s="163"/>
       <c r="B27" s="3" t="s">
         <v>199</v>
       </c>
@@ -44462,7 +44468,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="161"/>
+      <c r="A28" s="163"/>
       <c r="B28" s="3" t="s">
         <v>218</v>
       </c>
@@ -44474,7 +44480,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="161" t="s">
+      <c r="A29" s="163" t="s">
         <v>248</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -44488,7 +44494,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="161"/>
+      <c r="A30" s="163"/>
       <c r="B30" s="3" t="s">
         <v>209</v>
       </c>
@@ -44500,7 +44506,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="161"/>
+      <c r="A31" s="163"/>
       <c r="B31" s="3" t="s">
         <v>211</v>
       </c>
@@ -44512,7 +44518,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="161"/>
+      <c r="A32" s="163"/>
       <c r="B32" s="3" t="s">
         <v>213</v>
       </c>
@@ -44524,7 +44530,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="161"/>
+      <c r="A33" s="163"/>
       <c r="B33" s="3" t="s">
         <v>199</v>
       </c>
@@ -44536,7 +44542,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="161"/>
+      <c r="A34" s="163"/>
       <c r="B34" s="3" t="s">
         <v>199</v>
       </c>
@@ -44548,7 +44554,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="161"/>
+      <c r="A35" s="163"/>
       <c r="B35" s="3" t="s">
         <v>199</v>
       </c>
@@ -44560,7 +44566,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="161"/>
+      <c r="A36" s="163"/>
       <c r="B36" s="3" t="s">
         <v>199</v>
       </c>
@@ -44572,7 +44578,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="161"/>
+      <c r="A37" s="163"/>
       <c r="B37" s="3" t="s">
         <v>218</v>
       </c>
@@ -44584,7 +44590,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="161" t="s">
+      <c r="A38" s="163" t="s">
         <v>249</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -44598,7 +44604,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="161"/>
+      <c r="A39" s="163"/>
       <c r="B39" s="3" t="s">
         <v>209</v>
       </c>
@@ -44610,7 +44616,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="161"/>
+      <c r="A40" s="163"/>
       <c r="B40" s="3" t="s">
         <v>211</v>
       </c>
@@ -44622,7 +44628,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="161"/>
+      <c r="A41" s="163"/>
       <c r="B41" s="3" t="s">
         <v>213</v>
       </c>
@@ -44634,7 +44640,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="161"/>
+      <c r="A42" s="163"/>
       <c r="B42" s="3" t="s">
         <v>199</v>
       </c>
@@ -44646,7 +44652,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="161"/>
+      <c r="A43" s="163"/>
       <c r="B43" s="3" t="s">
         <v>199</v>
       </c>
@@ -44658,7 +44664,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="161"/>
+      <c r="A44" s="163"/>
       <c r="B44" s="3" t="s">
         <v>199</v>
       </c>
@@ -44670,7 +44676,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="161"/>
+      <c r="A45" s="163"/>
       <c r="B45" s="3" t="s">
         <v>199</v>
       </c>
@@ -44682,7 +44688,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="161"/>
+      <c r="A46" s="163"/>
       <c r="B46" s="3" t="s">
         <v>218</v>
       </c>
@@ -44694,7 +44700,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="161" t="s">
+      <c r="A47" s="163" t="s">
         <v>250</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -44708,7 +44714,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="161"/>
+      <c r="A48" s="163"/>
       <c r="B48" s="3" t="s">
         <v>227</v>
       </c>
@@ -44720,7 +44726,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="161"/>
+      <c r="A49" s="163"/>
       <c r="B49" s="3" t="s">
         <v>199</v>
       </c>
@@ -44732,7 +44738,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="161"/>
+      <c r="A50" s="163"/>
       <c r="B50" s="3" t="s">
         <v>199</v>
       </c>
@@ -44744,7 +44750,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="161"/>
+      <c r="A51" s="163"/>
       <c r="B51" s="3" t="s">
         <v>227</v>
       </c>
@@ -44794,11 +44800,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="164" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="162"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="164"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -44958,21 +44964,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x01010033EEC36A0D95F94CAA0553F64E5DEB40" ma:contentTypeVersion="0" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="297792c5ab191e558f1c3de1ab992488">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b51e50da1bca0add1c6bbfbefcbaaafa">
     <xsd:element name="properties">
@@ -45021,8 +45012,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{109CA4A7-E7E5-421C-A35A-7084D41EBDB8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{292AFBA5-B1C3-47E7-BE08-FC3ADEC156E0}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -45034,7 +45040,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{292AFBA5-B1C3-47E7-BE08-FC3ADEC156E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{109CA4A7-E7E5-421C-A35A-7084D41EBDB8}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>